--- a/VerveStacks_CHE/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_CHE/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576E8222-8B97-4644-9C6C-B0EAA4915028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1F016C-CAB1-4D79-84F4-96FCE49339DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_CHE/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1F016C-CAB1-4D79-84F4-96FCE49339DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B162C428-A3F1-4C59-B06B-F3F561B1A8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_CHE/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B162C428-A3F1-4C59-B06B-F3F561B1A8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B021B3-74BE-4D4D-A292-E7CE36A3E757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_CHE/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B021B3-74BE-4D4D-A292-E7CE36A3E757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353E5A64-6BE5-4ED1-A7FE-377F4EB2DBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_CHE/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353E5A64-6BE5-4ED1-A7FE-377F4EB2DBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C366D3-4487-4D16-8548-2C2F21E303C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_CHE/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C366D3-4487-4D16-8548-2C2F21E303C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACF9C0D-B758-4DCB-BD0A-813ED191CC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
